--- a/Code/Results/Cases/Case_6_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007897577639323</v>
+        <v>1.028048481433989</v>
       </c>
       <c r="D2">
-        <v>1.022764567626468</v>
+        <v>1.039935456727558</v>
       </c>
       <c r="E2">
-        <v>1.019010628525178</v>
+        <v>1.037108232882714</v>
       </c>
       <c r="F2">
-        <v>1.021901513549435</v>
+        <v>1.040840016335458</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0434187770493</v>
+        <v>1.053358454287962</v>
       </c>
       <c r="J2">
-        <v>1.029844612376812</v>
+        <v>1.049421451267362</v>
       </c>
       <c r="K2">
-        <v>1.033915610511387</v>
+        <v>1.050865111094781</v>
       </c>
       <c r="L2">
-        <v>1.030211318996761</v>
+        <v>1.048073709661085</v>
       </c>
       <c r="M2">
-        <v>1.033063930228567</v>
+        <v>1.051758260726181</v>
       </c>
       <c r="N2">
-        <v>1.031307109851229</v>
+        <v>1.050911750098484</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015947065594418</v>
+        <v>1.034373361924713</v>
       </c>
       <c r="D3">
-        <v>1.028881316488573</v>
+        <v>1.044813919446375</v>
       </c>
       <c r="E3">
-        <v>1.026142135417041</v>
+        <v>1.042690648382643</v>
       </c>
       <c r="F3">
-        <v>1.029826255737359</v>
+        <v>1.047133020600364</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04583386679373</v>
+        <v>1.055630965998857</v>
       </c>
       <c r="J3">
-        <v>1.036012240367258</v>
+        <v>1.053968901448169</v>
       </c>
       <c r="K3">
-        <v>1.039157525016384</v>
+        <v>1.054903793384053</v>
       </c>
       <c r="L3">
-        <v>1.03645110215909</v>
+        <v>1.052804948073798</v>
       </c>
       <c r="M3">
-        <v>1.040091213726637</v>
+        <v>1.057196355632958</v>
       </c>
       <c r="N3">
-        <v>1.037483496580844</v>
+        <v>1.055465658180148</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020990080668716</v>
+        <v>1.038360238152656</v>
       </c>
       <c r="D4">
-        <v>1.032715246905176</v>
+        <v>1.047891256473311</v>
       </c>
       <c r="E4">
-        <v>1.030616208749352</v>
+        <v>1.046215030277429</v>
       </c>
       <c r="F4">
-        <v>1.034800072449773</v>
+        <v>1.051107693895408</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047333785907885</v>
+        <v>1.057053055777379</v>
       </c>
       <c r="J4">
-        <v>1.039871682685616</v>
+        <v>1.056831104183707</v>
       </c>
       <c r="K4">
-        <v>1.042434232342674</v>
+        <v>1.057444094397698</v>
       </c>
       <c r="L4">
-        <v>1.040358648622392</v>
+        <v>1.055785929209967</v>
       </c>
       <c r="M4">
-        <v>1.044495878100582</v>
+        <v>1.060626072896485</v>
       </c>
       <c r="N4">
-        <v>1.041348419749979</v>
+        <v>1.05833192557187</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023072908754549</v>
+        <v>1.040012210705227</v>
       </c>
       <c r="D5">
-        <v>1.034299008097614</v>
+        <v>1.049166814907633</v>
       </c>
       <c r="E5">
-        <v>1.032465448646471</v>
+        <v>1.047676634953416</v>
       </c>
       <c r="F5">
-        <v>1.036856401204388</v>
+        <v>1.05275646407389</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047950049141528</v>
+        <v>1.057639765165464</v>
       </c>
       <c r="J5">
-        <v>1.041464508999602</v>
+        <v>1.05801599340763</v>
       </c>
       <c r="K5">
-        <v>1.043785696567041</v>
+        <v>1.058495306121382</v>
       </c>
       <c r="L5">
-        <v>1.04197203379519</v>
+        <v>1.057020734571477</v>
       </c>
       <c r="M5">
-        <v>1.046315482444848</v>
+        <v>1.062047578149346</v>
       </c>
       <c r="N5">
-        <v>1.04294350806003</v>
+        <v>1.0595184974744</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023420505152395</v>
+        <v>1.040288203823201</v>
       </c>
       <c r="D6">
-        <v>1.034563330987035</v>
+        <v>1.04937994568901</v>
       </c>
       <c r="E6">
-        <v>1.03277414166617</v>
+        <v>1.047920896522718</v>
       </c>
       <c r="F6">
-        <v>1.03719969571349</v>
+        <v>1.053032030100104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048052703826784</v>
+        <v>1.057737635522069</v>
       </c>
       <c r="J6">
-        <v>1.041730259708899</v>
+        <v>1.058213887117802</v>
       </c>
       <c r="K6">
-        <v>1.044011126283829</v>
+        <v>1.058670848800075</v>
       </c>
       <c r="L6">
-        <v>1.042241256051462</v>
+        <v>1.057227008807154</v>
       </c>
       <c r="M6">
-        <v>1.046619173195577</v>
+        <v>1.062285089217614</v>
       </c>
       <c r="N6">
-        <v>1.043209636165817</v>
+        <v>1.059716672216339</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021018054927396</v>
+        <v>1.038382405094823</v>
       </c>
       <c r="D7">
-        <v>1.032736517217929</v>
+        <v>1.047908370806325</v>
       </c>
       <c r="E7">
-        <v>1.030641040310087</v>
+        <v>1.046234637831388</v>
       </c>
       <c r="F7">
-        <v>1.034827682646387</v>
+        <v>1.051129810584401</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047342075726531</v>
+        <v>1.057060938612509</v>
       </c>
       <c r="J7">
-        <v>1.039893080508203</v>
+        <v>1.05684700788195</v>
       </c>
       <c r="K7">
-        <v>1.042452391193513</v>
+        <v>1.057458205532965</v>
       </c>
       <c r="L7">
-        <v>1.040380319837054</v>
+        <v>1.055802499941021</v>
       </c>
       <c r="M7">
-        <v>1.044520315442534</v>
+        <v>1.060645145823563</v>
       </c>
       <c r="N7">
-        <v>1.041369847959928</v>
+        <v>1.058347851855189</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010653717578541</v>
+        <v>1.030208652340819</v>
       </c>
       <c r="D8">
-        <v>1.024858481564356</v>
+        <v>1.041601113417531</v>
       </c>
       <c r="E8">
-        <v>1.021451089378016</v>
+        <v>1.039013628947995</v>
       </c>
       <c r="F8">
-        <v>1.024613003695995</v>
+        <v>1.042987614577601</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044248435066007</v>
+        <v>1.054136754624804</v>
       </c>
       <c r="J8">
-        <v>1.031957328018957</v>
+        <v>1.050975437039668</v>
       </c>
       <c r="K8">
-        <v>1.035711936354744</v>
+        <v>1.052245582017918</v>
       </c>
       <c r="L8">
-        <v>1.032348124925198</v>
+        <v>1.049689847681088</v>
       </c>
       <c r="M8">
-        <v>1.035469586059795</v>
+        <v>1.053615150475557</v>
       </c>
       <c r="N8">
-        <v>1.033422825791904</v>
+        <v>1.052467942708832</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9910028506638003</v>
+        <v>1.014936666849761</v>
       </c>
       <c r="D9">
-        <v>1.009942828785102</v>
+        <v>1.029838019595527</v>
       </c>
       <c r="E9">
-        <v>1.004082033853095</v>
+        <v>1.025569052910497</v>
       </c>
       <c r="F9">
-        <v>1.005322645809209</v>
+        <v>1.027840171026834</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038279169037051</v>
+        <v>1.048591755090742</v>
       </c>
       <c r="J9">
-        <v>1.016877371494022</v>
+        <v>1.039972778700842</v>
       </c>
       <c r="K9">
-        <v>1.022876624263186</v>
+        <v>1.042464858857185</v>
       </c>
       <c r="L9">
-        <v>1.017109228269714</v>
+        <v>1.038260477306119</v>
       </c>
       <c r="M9">
-        <v>1.018329953056832</v>
+        <v>1.040497150631962</v>
       </c>
       <c r="N9">
-        <v>1.018321453999008</v>
+        <v>1.041449659333142</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9767777177618663</v>
+        <v>1.004080521966442</v>
       </c>
       <c r="D10">
-        <v>0.999170608742472</v>
+        <v>1.021496520971827</v>
       </c>
       <c r="E10">
-        <v>0.9915541432878827</v>
+        <v>1.016048520817795</v>
       </c>
       <c r="F10">
-        <v>0.9914169587779184</v>
+        <v>1.017120362791975</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033892647751359</v>
+        <v>1.044598032090411</v>
       </c>
       <c r="J10">
-        <v>1.005943979739247</v>
+        <v>1.032133173189817</v>
       </c>
       <c r="K10">
-        <v>1.013554854268993</v>
+        <v>1.03548820120951</v>
       </c>
       <c r="L10">
-        <v>1.006077583268978</v>
+        <v>1.030133936379857</v>
       </c>
       <c r="M10">
-        <v>1.005942931427051</v>
+        <v>1.031187234190948</v>
       </c>
       <c r="N10">
-        <v>1.007372535573864</v>
+        <v>1.033598920683076</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9702998623486232</v>
+        <v>0.9991965844209304</v>
       </c>
       <c r="D11">
-        <v>0.9942739114047647</v>
+        <v>1.017750115827078</v>
       </c>
       <c r="E11">
-        <v>0.9858620410571074</v>
+        <v>1.011775247044292</v>
       </c>
       <c r="F11">
-        <v>0.9851000779462343</v>
+        <v>1.012309924254858</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031880964075331</v>
+        <v>1.042789794375708</v>
       </c>
       <c r="J11">
-        <v>1.000962612549437</v>
+        <v>1.028602824657925</v>
       </c>
       <c r="K11">
-        <v>1.009304627346552</v>
+        <v>1.032344878529518</v>
       </c>
       <c r="L11">
-        <v>1.001055596152976</v>
+        <v>1.026478464278009</v>
       </c>
       <c r="M11">
-        <v>1.000308563611205</v>
+        <v>1.027003368244459</v>
       </c>
       <c r="N11">
-        <v>1.002384094271273</v>
+        <v>1.030063558651332</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9678406833575894</v>
+        <v>0.9973527426514137</v>
       </c>
       <c r="D12">
-        <v>0.9924165764482789</v>
+        <v>1.01633680030988</v>
       </c>
       <c r="E12">
-        <v>0.9837032918071905</v>
+        <v>1.010163527471805</v>
       </c>
       <c r="F12">
-        <v>0.9827044977959363</v>
+        <v>1.010495735099235</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031115282683235</v>
+        <v>1.042105466412899</v>
       </c>
       <c r="J12">
-        <v>0.9990713202228885</v>
+        <v>1.02726956326578</v>
       </c>
       <c r="K12">
-        <v>1.00769051944463</v>
+        <v>1.031157566031859</v>
       </c>
       <c r="L12">
-        <v>0.9991495158059062</v>
+        <v>1.025098566801578</v>
       </c>
       <c r="M12">
-        <v>0.9981707269937807</v>
+        <v>1.025424578541799</v>
       </c>
       <c r="N12">
-        <v>1.000490116092687</v>
+        <v>1.028728403875083</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9683706768387387</v>
+        <v>0.997749636457039</v>
       </c>
       <c r="D13">
-        <v>0.9928167860997686</v>
+        <v>1.016640971104507</v>
       </c>
       <c r="E13">
-        <v>0.98416843786774</v>
+        <v>1.01051038312104</v>
       </c>
       <c r="F13">
-        <v>0.9832206696584397</v>
+        <v>1.010886158776903</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031280386955643</v>
+        <v>1.042252844272483</v>
       </c>
       <c r="J13">
-        <v>0.9994789321711542</v>
+        <v>1.027556571349217</v>
       </c>
       <c r="K13">
-        <v>1.008038409967054</v>
+        <v>1.031413165318844</v>
       </c>
       <c r="L13">
-        <v>0.9995602860539403</v>
+        <v>1.025395586177604</v>
       </c>
       <c r="M13">
-        <v>0.9986314120903722</v>
+        <v>1.025764383503174</v>
       </c>
       <c r="N13">
-        <v>1.000898306896673</v>
+        <v>1.029015819542919</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9700977002382318</v>
+        <v>0.9990447920098049</v>
       </c>
       <c r="D14">
-        <v>0.9941211912480815</v>
+        <v>1.017633743503167</v>
       </c>
       <c r="E14">
-        <v>0.9856845319013614</v>
+        <v>1.011642531213947</v>
       </c>
       <c r="F14">
-        <v>0.9849030927212944</v>
+        <v>1.012160533847872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031818059031832</v>
+        <v>1.042733491020635</v>
       </c>
       <c r="J14">
-        <v>1.000807138348415</v>
+        <v>1.028493073750745</v>
       </c>
       <c r="K14">
-        <v>1.009171947101076</v>
+        <v>1.032247145996526</v>
       </c>
       <c r="L14">
-        <v>1.000898893376597</v>
+        <v>1.026364861842368</v>
       </c>
       <c r="M14">
-        <v>1.000132794237249</v>
+        <v>1.026873380195115</v>
       </c>
       <c r="N14">
-        <v>1.002228399279053</v>
+        <v>1.029953651885276</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9711545823590928</v>
+        <v>0.9998387703593207</v>
       </c>
       <c r="D15">
-        <v>0.9949196623721214</v>
+        <v>1.018242494933968</v>
       </c>
       <c r="E15">
-        <v>0.9866126189344937</v>
+        <v>1.012336790783872</v>
       </c>
       <c r="F15">
-        <v>0.9859330126303982</v>
+        <v>1.012942026023469</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032146840069004</v>
+        <v>1.043027929052964</v>
       </c>
       <c r="J15">
-        <v>1.001619932932375</v>
+        <v>1.029067128714777</v>
       </c>
       <c r="K15">
-        <v>1.009865562216332</v>
+        <v>1.032758329970881</v>
       </c>
       <c r="L15">
-        <v>1.001718136577046</v>
+        <v>1.026959087475756</v>
       </c>
       <c r="M15">
-        <v>1.001051744824203</v>
+        <v>1.027553337926342</v>
       </c>
       <c r="N15">
-        <v>1.00304234812455</v>
+        <v>1.030528522073202</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9772004999227009</v>
+        <v>1.004400610375465</v>
       </c>
       <c r="D16">
-        <v>0.999490398540627</v>
+        <v>1.021742197193689</v>
       </c>
       <c r="E16">
-        <v>0.9919259245216231</v>
+        <v>1.016328798861295</v>
       </c>
       <c r="F16">
-        <v>0.9918295676436988</v>
+        <v>1.017435892811074</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034023660927477</v>
+        <v>1.044716308708451</v>
       </c>
       <c r="J16">
-        <v>1.006269053118287</v>
+        <v>1.032364483085579</v>
       </c>
       <c r="K16">
-        <v>1.013832155278851</v>
+        <v>1.035694122166502</v>
       </c>
       <c r="L16">
-        <v>1.006405393877181</v>
+        <v>1.030373529502271</v>
       </c>
       <c r="M16">
-        <v>1.006310808846111</v>
+        <v>1.031461539901502</v>
       </c>
       <c r="N16">
-        <v>1.007698070594389</v>
+        <v>1.033830559065422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9809043009456103</v>
+        <v>1.007211606283071</v>
       </c>
       <c r="D17">
-        <v>1.002292945637902</v>
+        <v>1.023900432310992</v>
       </c>
       <c r="E17">
-        <v>0.9951843974516659</v>
+        <v>1.018791303865301</v>
       </c>
       <c r="F17">
-        <v>0.9954460053371443</v>
+        <v>1.020208242745949</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035169831474156</v>
+        <v>1.045753707270422</v>
       </c>
       <c r="J17">
-        <v>1.009116606469512</v>
+        <v>1.034395446370039</v>
       </c>
       <c r="K17">
-        <v>1.016260890302544</v>
+        <v>1.037501987703293</v>
       </c>
       <c r="L17">
-        <v>1.009277391774362</v>
+        <v>1.032477684815451</v>
       </c>
       <c r="M17">
-        <v>1.009534356527936</v>
+        <v>1.033870988959864</v>
       </c>
       <c r="N17">
-        <v>1.010549667797991</v>
+        <v>1.0358644065507</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9830343457269278</v>
+        <v>1.008833702225943</v>
       </c>
       <c r="D18">
-        <v>1.003905483232913</v>
+        <v>1.025146430199472</v>
       </c>
       <c r="E18">
-        <v>0.997059524738628</v>
+        <v>1.020213218739136</v>
       </c>
       <c r="F18">
-        <v>0.9975272476343159</v>
+        <v>1.021809179546761</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035827657249706</v>
+        <v>1.046351247737012</v>
       </c>
       <c r="J18">
-        <v>1.010753980179251</v>
+        <v>1.03556708728094</v>
       </c>
       <c r="K18">
-        <v>1.017657141762449</v>
+        <v>1.038544775553547</v>
       </c>
       <c r="L18">
-        <v>1.010929208387564</v>
+        <v>1.033691934613558</v>
       </c>
       <c r="M18">
-        <v>1.011388800952068</v>
+        <v>1.035261785334809</v>
       </c>
       <c r="N18">
-        <v>1.012189366766207</v>
+        <v>1.037037711326084</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9837556385881475</v>
+        <v>1.009383888376544</v>
       </c>
       <c r="D19">
-        <v>1.004451662049981</v>
+        <v>1.025569145205938</v>
       </c>
       <c r="E19">
-        <v>0.997694691588436</v>
+        <v>1.020695659610735</v>
       </c>
       <c r="F19">
-        <v>0.9982322545205371</v>
+        <v>1.022352380386068</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036050185543574</v>
+        <v>1.046553735106835</v>
       </c>
       <c r="J19">
-        <v>1.011308394934461</v>
+        <v>1.035964428096309</v>
       </c>
       <c r="K19">
-        <v>1.018129860435604</v>
+        <v>1.038898392024129</v>
       </c>
       <c r="L19">
-        <v>1.011488578856183</v>
+        <v>1.03410379071504</v>
       </c>
       <c r="M19">
-        <v>1.012016863791271</v>
+        <v>1.035733586760781</v>
       </c>
       <c r="N19">
-        <v>1.012744568853962</v>
+        <v>1.037435616410986</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9805100893308659</v>
+        <v>1.006911839452356</v>
       </c>
       <c r="D20">
-        <v>1.001994573242523</v>
+        <v>1.023670215257082</v>
       </c>
       <c r="E20">
-        <v>0.9948374590032276</v>
+        <v>1.018528604432756</v>
       </c>
       <c r="F20">
-        <v>0.9950609413828129</v>
+        <v>1.01991247805383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035047977334545</v>
+        <v>1.045643191417263</v>
       </c>
       <c r="J20">
-        <v>1.008813553534144</v>
+        <v>1.034178896997567</v>
       </c>
       <c r="K20">
-        <v>1.016002440920599</v>
+        <v>1.037309241360457</v>
       </c>
       <c r="L20">
-        <v>1.00897169698366</v>
+        <v>1.032253291385408</v>
       </c>
       <c r="M20">
-        <v>1.009191197733905</v>
+        <v>1.033613999779638</v>
       </c>
       <c r="N20">
-        <v>1.010246184492694</v>
+        <v>1.035647549653281</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9695906441112122</v>
+        <v>0.9986642406403579</v>
       </c>
       <c r="D21">
-        <v>0.9937381703073948</v>
+        <v>1.017342009824635</v>
       </c>
       <c r="E21">
-        <v>0.9852393445241037</v>
+        <v>1.011309831561922</v>
       </c>
       <c r="F21">
-        <v>0.9844090616394693</v>
+        <v>1.011786035342141</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031660251280815</v>
+        <v>1.04259230916195</v>
       </c>
       <c r="J21">
-        <v>1.000417180223055</v>
+        <v>1.028217915758283</v>
       </c>
       <c r="K21">
-        <v>1.008839154072527</v>
+        <v>1.032002116068619</v>
       </c>
       <c r="L21">
-        <v>1.000505863990126</v>
+        <v>1.026080057581451</v>
       </c>
       <c r="M21">
-        <v>0.9996919542248409</v>
+        <v>1.026547505888228</v>
       </c>
       <c r="N21">
-        <v>1.001837887368426</v>
+        <v>1.029678103136903</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9624152344921643</v>
+        <v>0.9933053629496457</v>
       </c>
       <c r="D22">
-        <v>0.9883221939859259</v>
+        <v>1.013236591642608</v>
       </c>
       <c r="E22">
-        <v>0.9789448475095212</v>
+        <v>1.006628704987685</v>
       </c>
       <c r="F22">
-        <v>0.9774241540014745</v>
+        <v>1.006517045913529</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029422526060632</v>
+        <v>1.040600339818121</v>
       </c>
       <c r="J22">
-        <v>0.9948985223261106</v>
+        <v>1.02434222870457</v>
       </c>
       <c r="K22">
-        <v>1.004128595256773</v>
+        <v>1.028550311914806</v>
       </c>
       <c r="L22">
-        <v>0.9949452773688878</v>
+        <v>1.022069979824881</v>
       </c>
       <c r="M22">
-        <v>0.9934565130175933</v>
+        <v>1.021960495019298</v>
       </c>
       <c r="N22">
-        <v>0.9963113923442692</v>
+        <v>1.025796912163026</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9662503856241023</v>
+        <v>0.9961634340470592</v>
       </c>
       <c r="D23">
-        <v>0.9912159643030358</v>
+        <v>1.015425507934484</v>
       </c>
       <c r="E23">
-        <v>0.9823079054177353</v>
+        <v>1.009124400013901</v>
       </c>
       <c r="F23">
-        <v>0.9811560514525005</v>
+        <v>1.009326099946322</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030619590911536</v>
+        <v>1.041663605273517</v>
       </c>
       <c r="J23">
-        <v>0.9978482206851216</v>
+        <v>1.026409473515218</v>
       </c>
       <c r="K23">
-        <v>1.006646567760447</v>
+        <v>1.030391570873674</v>
       </c>
       <c r="L23">
-        <v>0.9979170333225037</v>
+        <v>1.024208566604093</v>
       </c>
       <c r="M23">
-        <v>0.9967885753597707</v>
+        <v>1.024406456155806</v>
       </c>
       <c r="N23">
-        <v>0.9992652796132847</v>
+        <v>1.027867092698421</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.980688309903992</v>
+        <v>1.007047345128395</v>
       </c>
       <c r="D24">
-        <v>1.002129463041001</v>
+        <v>1.023774280075168</v>
       </c>
       <c r="E24">
-        <v>0.9949943039948347</v>
+        <v>1.018647351437495</v>
       </c>
       <c r="F24">
-        <v>0.9952350218919533</v>
+        <v>1.020046171077127</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035103070974085</v>
+        <v>1.045693152066242</v>
       </c>
       <c r="J24">
-        <v>1.008950562620648</v>
+        <v>1.034276786353299</v>
       </c>
       <c r="K24">
-        <v>1.016119285837622</v>
+        <v>1.037396371221732</v>
       </c>
       <c r="L24">
-        <v>1.009109899240572</v>
+        <v>1.032354725386949</v>
       </c>
       <c r="M24">
-        <v>1.009346335822013</v>
+        <v>1.033730167097342</v>
       </c>
       <c r="N24">
-        <v>1.010383388147817</v>
+        <v>1.035745578023126</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.996265732960774</v>
+        <v>1.01899661057601</v>
       </c>
       <c r="D25">
-        <v>1.013934091160069</v>
+        <v>1.03296210584565</v>
       </c>
       <c r="E25">
-        <v>1.008726703313679</v>
+        <v>1.02913727549818</v>
       </c>
       <c r="F25">
-        <v>1.010479540135218</v>
+        <v>1.031859079866408</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039889342883098</v>
+        <v>1.050074994240022</v>
       </c>
       <c r="J25">
-        <v>1.020919426954892</v>
+        <v>1.042901150060117</v>
       </c>
       <c r="K25">
-        <v>1.026319881758029</v>
+        <v>1.045069403269738</v>
       </c>
       <c r="L25">
-        <v>1.021191042251076</v>
+        <v>1.041299505069504</v>
       </c>
       <c r="M25">
-        <v>1.022917324108707</v>
+        <v>1.043982166025405</v>
       </c>
       <c r="N25">
-        <v>1.022369249642263</v>
+        <v>1.044382189315636</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028048481433989</v>
+        <v>1.016464036542492</v>
       </c>
       <c r="D2">
-        <v>1.039935456727558</v>
+        <v>1.031151640731802</v>
       </c>
       <c r="E2">
-        <v>1.037108232882714</v>
+        <v>1.027217500228019</v>
       </c>
       <c r="F2">
-        <v>1.040840016335458</v>
+        <v>1.030347092937341</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053358454287962</v>
+        <v>1.048460231537607</v>
       </c>
       <c r="J2">
-        <v>1.049421451267362</v>
+        <v>1.038163220075011</v>
       </c>
       <c r="K2">
-        <v>1.050865111094781</v>
+        <v>1.04219339474686</v>
       </c>
       <c r="L2">
-        <v>1.048073709661085</v>
+        <v>1.03831024029526</v>
       </c>
       <c r="M2">
-        <v>1.051758260726181</v>
+        <v>1.04139923418176</v>
       </c>
       <c r="N2">
-        <v>1.050911750098484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016288864216279</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040904667325327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034373361924713</v>
+        <v>1.020738797365826</v>
       </c>
       <c r="D3">
-        <v>1.044813919446375</v>
+        <v>1.033987272160445</v>
       </c>
       <c r="E3">
-        <v>1.042690648382643</v>
+        <v>1.030929607871958</v>
       </c>
       <c r="F3">
-        <v>1.047133020600364</v>
+        <v>1.034699045655905</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055630965998857</v>
+        <v>1.049583192980545</v>
       </c>
       <c r="J3">
-        <v>1.053968901448169</v>
+        <v>1.040679635934953</v>
       </c>
       <c r="K3">
-        <v>1.054903793384053</v>
+        <v>1.044202991597315</v>
       </c>
       <c r="L3">
-        <v>1.052804948073798</v>
+        <v>1.041181461584867</v>
       </c>
       <c r="M3">
-        <v>1.057196355632958</v>
+        <v>1.04490639156555</v>
       </c>
       <c r="N3">
-        <v>1.055465658180148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017153972302544</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042322963412236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038360238152656</v>
+        <v>1.023453049647018</v>
       </c>
       <c r="D4">
-        <v>1.047891256473311</v>
+        <v>1.035791945917447</v>
       </c>
       <c r="E4">
-        <v>1.046215030277429</v>
+        <v>1.033292317740976</v>
       </c>
       <c r="F4">
-        <v>1.051107693895408</v>
+        <v>1.037469479058389</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057053055777379</v>
+        <v>1.050288402561893</v>
       </c>
       <c r="J4">
-        <v>1.056831104183707</v>
+        <v>1.042275272748964</v>
       </c>
       <c r="K4">
-        <v>1.057444094397698</v>
+        <v>1.045476763863018</v>
       </c>
       <c r="L4">
-        <v>1.055785929209967</v>
+        <v>1.043004875594567</v>
       </c>
       <c r="M4">
-        <v>1.060626072896485</v>
+        <v>1.047135772509257</v>
       </c>
       <c r="N4">
-        <v>1.05833192557187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017702373985943</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043224515947958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040012210705227</v>
+        <v>1.024586268623391</v>
       </c>
       <c r="D5">
-        <v>1.049166814907633</v>
+        <v>1.036548633034287</v>
       </c>
       <c r="E5">
-        <v>1.047676634953416</v>
+        <v>1.034280399764286</v>
       </c>
       <c r="F5">
-        <v>1.05275646407389</v>
+        <v>1.038627652915533</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057639765165464</v>
+        <v>1.050582617568207</v>
       </c>
       <c r="J5">
-        <v>1.05801599340763</v>
+        <v>1.042942522927028</v>
       </c>
       <c r="K5">
-        <v>1.058495306121382</v>
+        <v>1.046011027814134</v>
       </c>
       <c r="L5">
-        <v>1.057020734571477</v>
+        <v>1.043767289725504</v>
       </c>
       <c r="M5">
-        <v>1.062047578149346</v>
+        <v>1.048067711008992</v>
       </c>
       <c r="N5">
-        <v>1.0595184974744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017932156785368</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043609418662303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040288203823201</v>
+        <v>1.024780878714393</v>
       </c>
       <c r="D6">
-        <v>1.04937994568901</v>
+        <v>1.036681376819041</v>
       </c>
       <c r="E6">
-        <v>1.047920896522718</v>
+        <v>1.034450516735155</v>
       </c>
       <c r="F6">
-        <v>1.053032030100104</v>
+        <v>1.038826395410022</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057737635522069</v>
+        <v>1.050635091167607</v>
       </c>
       <c r="J6">
-        <v>1.058213887117802</v>
+        <v>1.043059031008777</v>
       </c>
       <c r="K6">
-        <v>1.058670848800075</v>
+        <v>1.046106407750875</v>
       </c>
       <c r="L6">
-        <v>1.057227008807154</v>
+        <v>1.043899527743924</v>
       </c>
       <c r="M6">
-        <v>1.062285089217614</v>
+        <v>1.048228487930563</v>
       </c>
       <c r="N6">
-        <v>1.059716672216339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017972882914325</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043685561400648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038382405094823</v>
+        <v>1.023481792736875</v>
       </c>
       <c r="D7">
-        <v>1.047908370806325</v>
+        <v>1.035818476802629</v>
       </c>
       <c r="E7">
-        <v>1.046234637831388</v>
+        <v>1.033318336978141</v>
       </c>
       <c r="F7">
-        <v>1.051129810584401</v>
+        <v>1.037498177186136</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057060938612509</v>
+        <v>1.050301415104881</v>
       </c>
       <c r="J7">
-        <v>1.05684700788195</v>
+        <v>1.04229744689972</v>
       </c>
       <c r="K7">
-        <v>1.057458205532965</v>
+        <v>1.045500138209845</v>
       </c>
       <c r="L7">
-        <v>1.055802499941021</v>
+        <v>1.04302773299882</v>
       </c>
       <c r="M7">
-        <v>1.060645145823563</v>
+        <v>1.047161297554301</v>
       </c>
       <c r="N7">
-        <v>1.058347851855189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01771166353371</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043261061329771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030208652340819</v>
+        <v>1.017936774999471</v>
       </c>
       <c r="D8">
-        <v>1.041601113417531</v>
+        <v>1.03213679985081</v>
       </c>
       <c r="E8">
-        <v>1.039013628947995</v>
+        <v>1.02849648955245</v>
       </c>
       <c r="F8">
-        <v>1.042987614577601</v>
+        <v>1.03184417408552</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054136754624804</v>
+        <v>1.048855622826156</v>
       </c>
       <c r="J8">
-        <v>1.050975437039668</v>
+        <v>1.039037162165162</v>
       </c>
       <c r="K8">
-        <v>1.052245582017918</v>
+        <v>1.042898366177464</v>
       </c>
       <c r="L8">
-        <v>1.049689847681088</v>
+        <v>1.039303811786445</v>
       </c>
       <c r="M8">
-        <v>1.053615150475557</v>
+        <v>1.042609403616015</v>
       </c>
       <c r="N8">
-        <v>1.052467942708832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016591516813797</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041425963759827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014936666849761</v>
+        <v>1.00772710813736</v>
       </c>
       <c r="D9">
-        <v>1.029838019595527</v>
+        <v>1.025381622859261</v>
       </c>
       <c r="E9">
-        <v>1.025569052910497</v>
+        <v>1.019663540908507</v>
       </c>
       <c r="F9">
-        <v>1.027840171026834</v>
+        <v>1.021492621651874</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048591755090742</v>
+        <v>1.046124021547034</v>
       </c>
       <c r="J9">
-        <v>1.039972778700842</v>
+        <v>1.033009922319326</v>
       </c>
       <c r="K9">
-        <v>1.042464858857185</v>
+        <v>1.038075898591244</v>
       </c>
       <c r="L9">
-        <v>1.038260477306119</v>
+        <v>1.032445447936126</v>
       </c>
       <c r="M9">
-        <v>1.040497150631962</v>
+        <v>1.034246361282776</v>
       </c>
       <c r="N9">
-        <v>1.041449659333142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014516851055509</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038013003561139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004080521966442</v>
+        <v>1.000615706148221</v>
       </c>
       <c r="D10">
-        <v>1.021496520971827</v>
+        <v>1.020706187649113</v>
       </c>
       <c r="E10">
-        <v>1.016048520817795</v>
+        <v>1.013545589542481</v>
       </c>
       <c r="F10">
-        <v>1.017120362791975</v>
+        <v>1.014322766458739</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044598032090411</v>
+        <v>1.044184427646698</v>
       </c>
       <c r="J10">
-        <v>1.032133173189817</v>
+        <v>1.028804916886327</v>
       </c>
       <c r="K10">
-        <v>1.03548820120951</v>
+        <v>1.034711385751522</v>
       </c>
       <c r="L10">
-        <v>1.030133936379857</v>
+        <v>1.027674506612483</v>
       </c>
       <c r="M10">
-        <v>1.031187234190948</v>
+        <v>1.028438146267926</v>
       </c>
       <c r="N10">
-        <v>1.033598920683076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013069818464906</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035650876404121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9991965844209304</v>
+        <v>0.9974740339564048</v>
       </c>
       <c r="D11">
-        <v>1.017750115827078</v>
+        <v>1.018656950808494</v>
       </c>
       <c r="E11">
-        <v>1.011775247044292</v>
+        <v>1.010853106305917</v>
       </c>
       <c r="F11">
-        <v>1.012309924254858</v>
+        <v>1.011164762613351</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042789794375708</v>
+        <v>1.043325751464468</v>
       </c>
       <c r="J11">
-        <v>1.028602824657925</v>
+        <v>1.026952274938671</v>
       </c>
       <c r="K11">
-        <v>1.032344878529518</v>
+        <v>1.033235397331956</v>
       </c>
       <c r="L11">
-        <v>1.026478464278009</v>
+        <v>1.025573210779235</v>
       </c>
       <c r="M11">
-        <v>1.027003368244459</v>
+        <v>1.025879155211652</v>
       </c>
       <c r="N11">
-        <v>1.030063558651332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012434871814569</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034640131487665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9973527426514137</v>
+        <v>0.9962844601537886</v>
       </c>
       <c r="D12">
-        <v>1.01633680030988</v>
+        <v>1.017877087797728</v>
       </c>
       <c r="E12">
-        <v>1.010163527471805</v>
+        <v>1.009834035679509</v>
       </c>
       <c r="F12">
-        <v>1.010495735099235</v>
+        <v>1.009970774626907</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042105466412899</v>
+        <v>1.042995528815769</v>
       </c>
       <c r="J12">
-        <v>1.02726956326578</v>
+        <v>1.026246904986116</v>
       </c>
       <c r="K12">
-        <v>1.031157566031859</v>
+        <v>1.032669622541671</v>
       </c>
       <c r="L12">
-        <v>1.025098566801578</v>
+        <v>1.0247752254997</v>
       </c>
       <c r="M12">
-        <v>1.025424578541799</v>
+        <v>1.024909411360569</v>
       </c>
       <c r="N12">
-        <v>1.028728403875083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012191735585577</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034240109930157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.997749636457039</v>
+        <v>0.9965382466238587</v>
       </c>
       <c r="D13">
-        <v>1.016640971104507</v>
+        <v>1.018042422674534</v>
       </c>
       <c r="E13">
-        <v>1.01051038312104</v>
+        <v>1.010051198753064</v>
       </c>
       <c r="F13">
-        <v>1.010886158776903</v>
+        <v>1.01022547634647</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042252844272483</v>
+        <v>1.043065291235115</v>
       </c>
       <c r="J13">
-        <v>1.027556571349217</v>
+        <v>1.026396680221401</v>
       </c>
       <c r="K13">
-        <v>1.031413165318844</v>
+        <v>1.032789031831507</v>
       </c>
       <c r="L13">
-        <v>1.025395586177604</v>
+        <v>1.024944938274571</v>
       </c>
       <c r="M13">
-        <v>1.025764383503174</v>
+        <v>1.025115974769242</v>
       </c>
       <c r="N13">
-        <v>1.029015819542919</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012243084832115</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03432204129748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9990447920098049</v>
+        <v>0.9973751283983447</v>
       </c>
       <c r="D14">
-        <v>1.017633743503167</v>
+        <v>1.018591663261972</v>
       </c>
       <c r="E14">
-        <v>1.011642531213947</v>
+        <v>1.010768270095011</v>
       </c>
       <c r="F14">
-        <v>1.012160533847872</v>
+        <v>1.011065477314956</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042733491020635</v>
+        <v>1.04329800334086</v>
       </c>
       <c r="J14">
-        <v>1.028493073750745</v>
+        <v>1.026893325043328</v>
       </c>
       <c r="K14">
-        <v>1.032247145996526</v>
+        <v>1.033187803927968</v>
       </c>
       <c r="L14">
-        <v>1.026364861842368</v>
+        <v>1.025506636579432</v>
       </c>
       <c r="M14">
-        <v>1.026873380195115</v>
+        <v>1.025798388318186</v>
       </c>
       <c r="N14">
-        <v>1.029953651885276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012414434319469</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034605412664042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9998387703593207</v>
+        <v>0.9978929409276067</v>
       </c>
       <c r="D15">
-        <v>1.018242494933968</v>
+        <v>1.018933621490732</v>
       </c>
       <c r="E15">
-        <v>1.012336790783872</v>
+        <v>1.011212497225501</v>
       </c>
       <c r="F15">
-        <v>1.012942026023469</v>
+        <v>1.011585335605987</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043027929052964</v>
+        <v>1.043443300654121</v>
       </c>
       <c r="J15">
-        <v>1.029067128714777</v>
+        <v>1.027202018271767</v>
       </c>
       <c r="K15">
-        <v>1.032758329970881</v>
+        <v>1.033437102379869</v>
       </c>
       <c r="L15">
-        <v>1.026959087475756</v>
+        <v>1.025855244836671</v>
       </c>
       <c r="M15">
-        <v>1.027553337926342</v>
+        <v>1.026221294724772</v>
       </c>
       <c r="N15">
-        <v>1.030528522073202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012521483155414</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034787550750344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004400610375465</v>
+        <v>1.00085584907549</v>
       </c>
       <c r="D16">
-        <v>1.021742197193689</v>
+        <v>1.020880104722638</v>
       </c>
       <c r="E16">
-        <v>1.016328798861295</v>
+        <v>1.01375469730773</v>
       </c>
       <c r="F16">
-        <v>1.017435892811074</v>
+        <v>1.014563552397216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044716308708451</v>
+        <v>1.044262719177957</v>
       </c>
       <c r="J16">
-        <v>1.032364483085579</v>
+        <v>1.028958875146303</v>
       </c>
       <c r="K16">
-        <v>1.035694122166502</v>
+        <v>1.034846724039968</v>
       </c>
       <c r="L16">
-        <v>1.030373529502271</v>
+        <v>1.027844007616946</v>
       </c>
       <c r="M16">
-        <v>1.031461539901502</v>
+        <v>1.028638822981238</v>
       </c>
       <c r="N16">
-        <v>1.033830559065422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013127267288048</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035787368629261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007211606283071</v>
+        <v>1.002692154054028</v>
       </c>
       <c r="D17">
-        <v>1.023900432310992</v>
+        <v>1.022088362316564</v>
       </c>
       <c r="E17">
-        <v>1.018791303865301</v>
+        <v>1.015332559767489</v>
       </c>
       <c r="F17">
-        <v>1.020208242745949</v>
+        <v>1.016411995760564</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045753707270422</v>
+        <v>1.044768229216249</v>
       </c>
       <c r="J17">
-        <v>1.034395446370039</v>
+        <v>1.030047268418947</v>
       </c>
       <c r="K17">
-        <v>1.037501987703293</v>
+        <v>1.035719878109493</v>
       </c>
       <c r="L17">
-        <v>1.032477684815451</v>
+        <v>1.029076990387171</v>
       </c>
       <c r="M17">
-        <v>1.033870988959864</v>
+        <v>1.030138255032091</v>
       </c>
       <c r="N17">
-        <v>1.0358644065507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013502534265959</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036407304259227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008833702225943</v>
+        <v>1.003745223512754</v>
       </c>
       <c r="D18">
-        <v>1.025146430199472</v>
+        <v>1.022776694109004</v>
       </c>
       <c r="E18">
-        <v>1.020213218739136</v>
+        <v>1.016237305596804</v>
       </c>
       <c r="F18">
-        <v>1.021809179546761</v>
+        <v>1.017473241638964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046351247737012</v>
+        <v>1.045053349263338</v>
       </c>
       <c r="J18">
-        <v>1.03556708728094</v>
+        <v>1.030667483679685</v>
       </c>
       <c r="K18">
-        <v>1.038544775553547</v>
+        <v>1.036213522228636</v>
       </c>
       <c r="L18">
-        <v>1.033691934613558</v>
+        <v>1.029781526887814</v>
       </c>
       <c r="M18">
-        <v>1.035261785334809</v>
+        <v>1.030997029625579</v>
       </c>
       <c r="N18">
-        <v>1.037037711326084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013714967306874</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03674469236057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009383888376544</v>
+        <v>1.004110880423769</v>
       </c>
       <c r="D19">
-        <v>1.025569145205938</v>
+        <v>1.023019884070369</v>
       </c>
       <c r="E19">
-        <v>1.020695659610735</v>
+        <v>1.016552311919222</v>
       </c>
       <c r="F19">
-        <v>1.022352380386068</v>
+        <v>1.017841678962674</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046553735106835</v>
+        <v>1.045155267935246</v>
       </c>
       <c r="J19">
-        <v>1.035964428096309</v>
+        <v>1.030885753474524</v>
       </c>
       <c r="K19">
-        <v>1.038898392024129</v>
+        <v>1.036390273938426</v>
       </c>
       <c r="L19">
-        <v>1.03410379071504</v>
+        <v>1.030028274152584</v>
       </c>
       <c r="M19">
-        <v>1.035733586760781</v>
+        <v>1.031296456744982</v>
       </c>
       <c r="N19">
-        <v>1.037435616410986</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013790824938907</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036876050837294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006911839452356</v>
+        <v>1.002495152647063</v>
       </c>
       <c r="D20">
-        <v>1.023670215257082</v>
+        <v>1.021958263542099</v>
       </c>
       <c r="E20">
-        <v>1.018528604432756</v>
+        <v>1.015163127563732</v>
       </c>
       <c r="F20">
-        <v>1.01991247805383</v>
+        <v>1.016213614795498</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045643191417263</v>
+        <v>1.044713780454885</v>
       </c>
       <c r="J20">
-        <v>1.034178896997567</v>
+        <v>1.029930228030839</v>
       </c>
       <c r="K20">
-        <v>1.037309241360457</v>
+        <v>1.035625688031738</v>
       </c>
       <c r="L20">
-        <v>1.032253291385408</v>
+        <v>1.028944490694712</v>
       </c>
       <c r="M20">
-        <v>1.033613999779638</v>
+        <v>1.029977235252775</v>
       </c>
       <c r="N20">
-        <v>1.035647549653281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013462071221285</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036339373812281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9986642406403579</v>
+        <v>0.9971401145484216</v>
       </c>
       <c r="D21">
-        <v>1.017342009824635</v>
+        <v>1.01844295175313</v>
       </c>
       <c r="E21">
-        <v>1.011309831561922</v>
+        <v>1.010567907178172</v>
       </c>
       <c r="F21">
-        <v>1.011786035342141</v>
+        <v>1.010829302321914</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04259230916195</v>
+        <v>1.043236869250876</v>
       </c>
       <c r="J21">
-        <v>1.028217915758283</v>
+        <v>1.026757894947126</v>
       </c>
       <c r="K21">
-        <v>1.032002116068619</v>
+        <v>1.033083142886431</v>
       </c>
       <c r="L21">
-        <v>1.026080057581451</v>
+        <v>1.025351795632557</v>
       </c>
       <c r="M21">
-        <v>1.026547505888228</v>
+        <v>1.025608374239143</v>
       </c>
       <c r="N21">
-        <v>1.029678103136903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012369259637145</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034544936297667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9933053629496457</v>
+        <v>0.993684404018693</v>
       </c>
       <c r="D22">
-        <v>1.013236591642608</v>
+        <v>1.016174007250882</v>
       </c>
       <c r="E22">
-        <v>1.006628704987685</v>
+        <v>1.007609042596612</v>
       </c>
       <c r="F22">
-        <v>1.006517045913529</v>
+        <v>1.007363945101861</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040600339818121</v>
+        <v>1.04227090933721</v>
       </c>
       <c r="J22">
-        <v>1.02434222870457</v>
+        <v>1.024704319632696</v>
       </c>
       <c r="K22">
-        <v>1.028550311914806</v>
+        <v>1.031431721921681</v>
       </c>
       <c r="L22">
-        <v>1.022069979824881</v>
+        <v>1.023031255042981</v>
       </c>
       <c r="M22">
-        <v>1.021960495019298</v>
+        <v>1.0227909188401</v>
       </c>
       <c r="N22">
-        <v>1.025796912163026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011659823679733</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033363801183918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9961634340470592</v>
+        <v>0.9955104023372024</v>
       </c>
       <c r="D23">
-        <v>1.015425507934484</v>
+        <v>1.017365628706576</v>
       </c>
       <c r="E23">
-        <v>1.009124400013901</v>
+        <v>1.009170491301193</v>
       </c>
       <c r="F23">
-        <v>1.009326099946322</v>
+        <v>1.009194466367669</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041663605273517</v>
+        <v>1.042777028314801</v>
       </c>
       <c r="J23">
-        <v>1.026409473515218</v>
+        <v>1.025784716238031</v>
       </c>
       <c r="K23">
-        <v>1.030391570873674</v>
+        <v>1.032295711375765</v>
       </c>
       <c r="L23">
-        <v>1.024208566604093</v>
+        <v>1.024253786990041</v>
       </c>
       <c r="M23">
-        <v>1.024406456155806</v>
+        <v>1.024277309085373</v>
       </c>
       <c r="N23">
-        <v>1.027867092698421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012031203851085</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03396503588237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007047345128395</v>
+        <v>1.002562660846118</v>
       </c>
       <c r="D24">
-        <v>1.023774280075168</v>
+        <v>1.021991901918465</v>
       </c>
       <c r="E24">
-        <v>1.018647351437495</v>
+        <v>1.015219247515258</v>
       </c>
       <c r="F24">
-        <v>1.020046171077127</v>
+        <v>1.016282167518671</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045693152066242</v>
+        <v>1.044724205766267</v>
       </c>
       <c r="J24">
-        <v>1.034276786353299</v>
+        <v>1.029962418863745</v>
       </c>
       <c r="K24">
-        <v>1.037396371221732</v>
+        <v>1.035643516721756</v>
       </c>
       <c r="L24">
-        <v>1.032354725386949</v>
+        <v>1.028984265463309</v>
       </c>
       <c r="M24">
-        <v>1.033730167097342</v>
+        <v>1.030029258685301</v>
       </c>
       <c r="N24">
-        <v>1.035745578023126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013470257249369</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036324591614465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01899661057601</v>
+        <v>1.010440989214254</v>
       </c>
       <c r="D25">
-        <v>1.03296210584565</v>
+        <v>1.027184285162938</v>
       </c>
       <c r="E25">
-        <v>1.02913727549818</v>
+        <v>1.022007589839263</v>
       </c>
       <c r="F25">
-        <v>1.031859079866408</v>
+        <v>1.02423653165402</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050074994240022</v>
+        <v>1.046865706931123</v>
       </c>
       <c r="J25">
-        <v>1.042901150060117</v>
+        <v>1.034622010067481</v>
       </c>
       <c r="K25">
-        <v>1.045069403269738</v>
+        <v>1.039374763549028</v>
       </c>
       <c r="L25">
-        <v>1.041299505069504</v>
+        <v>1.034273609095125</v>
       </c>
       <c r="M25">
-        <v>1.043982166025405</v>
+        <v>1.036469906330542</v>
       </c>
       <c r="N25">
-        <v>1.044382189315636</v>
+        <v>1.015074771372805</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038959906178674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016464036542492</v>
+        <v>1.015583413612671</v>
       </c>
       <c r="D2">
-        <v>1.031151640731802</v>
+        <v>1.029786982286981</v>
       </c>
       <c r="E2">
-        <v>1.027217500228019</v>
+        <v>1.026457165940815</v>
       </c>
       <c r="F2">
-        <v>1.030347092937341</v>
+        <v>1.029542606102991</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048460231537607</v>
+        <v>1.047856045084613</v>
       </c>
       <c r="J2">
-        <v>1.038163220075011</v>
+        <v>1.037307812024954</v>
       </c>
       <c r="K2">
-        <v>1.04219339474686</v>
+        <v>1.040846366911573</v>
       </c>
       <c r="L2">
-        <v>1.03831024029526</v>
+        <v>1.037559816304647</v>
       </c>
       <c r="M2">
-        <v>1.04139923418176</v>
+        <v>1.040605154103491</v>
       </c>
       <c r="N2">
-        <v>1.016288864216279</v>
+        <v>1.016860590081086</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040904667325327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039960956067727</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022841930290114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020738797365826</v>
+        <v>1.019630320635742</v>
       </c>
       <c r="D3">
-        <v>1.033987272160445</v>
+        <v>1.032360930942987</v>
       </c>
       <c r="E3">
-        <v>1.030929607871958</v>
+        <v>1.029963309119049</v>
       </c>
       <c r="F3">
-        <v>1.034699045655905</v>
+        <v>1.033680088413919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049583192980545</v>
+        <v>1.048841488134691</v>
       </c>
       <c r="J3">
-        <v>1.040679635934953</v>
+        <v>1.039599781376839</v>
       </c>
       <c r="K3">
-        <v>1.044202991597315</v>
+        <v>1.042595836837397</v>
       </c>
       <c r="L3">
-        <v>1.041181461584867</v>
+        <v>1.040226637462044</v>
       </c>
       <c r="M3">
-        <v>1.04490639156555</v>
+        <v>1.043899426067584</v>
       </c>
       <c r="N3">
-        <v>1.017153972302544</v>
+        <v>1.017485196540938</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042322963412236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041195042469053</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023213979261889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023453049647018</v>
+        <v>1.022201661840945</v>
       </c>
       <c r="D4">
-        <v>1.035791945917447</v>
+        <v>1.034000585197233</v>
       </c>
       <c r="E4">
-        <v>1.033292317740976</v>
+        <v>1.032196771235886</v>
       </c>
       <c r="F4">
-        <v>1.037469479058389</v>
+        <v>1.036316079684617</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050288402561893</v>
+        <v>1.049459953226403</v>
       </c>
       <c r="J4">
-        <v>1.042275272748964</v>
+        <v>1.041054006204526</v>
       </c>
       <c r="K4">
-        <v>1.045476763863018</v>
+        <v>1.043705266223007</v>
       </c>
       <c r="L4">
-        <v>1.043004875594567</v>
+        <v>1.041921539149834</v>
       </c>
       <c r="M4">
-        <v>1.047135772509257</v>
+        <v>1.045995101859871</v>
       </c>
       <c r="N4">
-        <v>1.017702373985943</v>
+        <v>1.017881478713988</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043224515947958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041980473011328</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023447528370115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024586268623391</v>
+        <v>1.023275521080042</v>
       </c>
       <c r="D5">
-        <v>1.036548633034287</v>
+        <v>1.034688608402007</v>
       </c>
       <c r="E5">
-        <v>1.034280399764286</v>
+        <v>1.0331311456522</v>
       </c>
       <c r="F5">
-        <v>1.038627652915533</v>
+        <v>1.037418420789063</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050582617568207</v>
+        <v>1.049718034674047</v>
       </c>
       <c r="J5">
-        <v>1.042942522927028</v>
+        <v>1.041662381008087</v>
       </c>
       <c r="K5">
-        <v>1.046011027814134</v>
+        <v>1.044171080304537</v>
       </c>
       <c r="L5">
-        <v>1.043767289725504</v>
+        <v>1.042630497041169</v>
       </c>
       <c r="M5">
-        <v>1.048067711008992</v>
+        <v>1.046871457347873</v>
       </c>
       <c r="N5">
-        <v>1.017932156785368</v>
+        <v>1.018047630973697</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043609418662303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042317689245443</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023545532184593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024780878714393</v>
+        <v>1.023459846656941</v>
       </c>
       <c r="D6">
-        <v>1.036681376819041</v>
+        <v>1.034809540483862</v>
       </c>
       <c r="E6">
-        <v>1.034450516735155</v>
+        <v>1.033291942514983</v>
       </c>
       <c r="F6">
-        <v>1.038826395410022</v>
+        <v>1.037607478536042</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050635091167607</v>
+        <v>1.049764249828493</v>
       </c>
       <c r="J6">
-        <v>1.043059031008777</v>
+        <v>1.041768685709155</v>
       </c>
       <c r="K6">
-        <v>1.046106407750875</v>
+        <v>1.044254683699591</v>
       </c>
       <c r="L6">
-        <v>1.043899527743924</v>
+        <v>1.04275345741852</v>
       </c>
       <c r="M6">
-        <v>1.048228487930563</v>
+        <v>1.047022591666885</v>
       </c>
       <c r="N6">
-        <v>1.017972882914325</v>
+        <v>1.018077119764512</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043685561400648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042386376581016</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023563723693264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023481792736875</v>
+        <v>1.022238318457388</v>
       </c>
       <c r="D7">
-        <v>1.035818476802629</v>
+        <v>1.034032418157651</v>
       </c>
       <c r="E7">
-        <v>1.033318336978141</v>
+        <v>1.032230193775109</v>
       </c>
       <c r="F7">
-        <v>1.037498177186136</v>
+        <v>1.036352429141799</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050301415104881</v>
+        <v>1.049476708766452</v>
       </c>
       <c r="J7">
-        <v>1.04229744689972</v>
+        <v>1.041083889945351</v>
       </c>
       <c r="K7">
-        <v>1.045500138209845</v>
+        <v>1.043733875886464</v>
       </c>
       <c r="L7">
-        <v>1.04302773299882</v>
+        <v>1.041951712445688</v>
       </c>
       <c r="M7">
-        <v>1.047161297554301</v>
+        <v>1.046028188612673</v>
       </c>
       <c r="N7">
-        <v>1.01771166353371</v>
+        <v>1.017917012100914</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043261061329771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042022724952338</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023456030005689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017936774999471</v>
+        <v>1.017006933236948</v>
       </c>
       <c r="D8">
-        <v>1.03213679985081</v>
+        <v>1.030703766862861</v>
       </c>
       <c r="E8">
-        <v>1.02849648955245</v>
+        <v>1.027692601345246</v>
       </c>
       <c r="F8">
-        <v>1.03184417408552</v>
+        <v>1.030994101466093</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048855622826156</v>
+        <v>1.048218698177912</v>
       </c>
       <c r="J8">
-        <v>1.039037162165162</v>
+        <v>1.038133045232376</v>
       </c>
       <c r="K8">
-        <v>1.042898366177464</v>
+        <v>1.041483297209596</v>
       </c>
       <c r="L8">
-        <v>1.039303811786445</v>
+        <v>1.038510082371176</v>
       </c>
       <c r="M8">
-        <v>1.042609403616015</v>
+        <v>1.04176998724563</v>
       </c>
       <c r="N8">
-        <v>1.016591516813797</v>
+        <v>1.017166680228976</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041425963759827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040436413193113</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022982392782296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00772710813736</v>
+        <v>1.007357907502654</v>
       </c>
       <c r="D9">
-        <v>1.025381622859261</v>
+        <v>1.024584467442875</v>
       </c>
       <c r="E9">
-        <v>1.019663540908507</v>
+        <v>1.019366155598468</v>
       </c>
       <c r="F9">
-        <v>1.021492621651874</v>
+        <v>1.021170922276521</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046124021547034</v>
+        <v>1.045821769940837</v>
       </c>
       <c r="J9">
-        <v>1.033009922319326</v>
+        <v>1.032653488058769</v>
       </c>
       <c r="K9">
-        <v>1.038075898591244</v>
+        <v>1.0372908850012</v>
       </c>
       <c r="L9">
-        <v>1.032445447936126</v>
+        <v>1.03215265448665</v>
       </c>
       <c r="M9">
-        <v>1.034246361282776</v>
+        <v>1.033929606665628</v>
       </c>
       <c r="N9">
-        <v>1.014516851055509</v>
+        <v>1.015681809784172</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038013003561139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037468671114215</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02207591447817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000615706148221</v>
+        <v>1.000694047900162</v>
       </c>
       <c r="D10">
-        <v>1.020706187649113</v>
+        <v>1.020392813756763</v>
       </c>
       <c r="E10">
-        <v>1.013545589542481</v>
+        <v>1.013653399480836</v>
       </c>
       <c r="F10">
-        <v>1.014322766458739</v>
+        <v>1.014424528668244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044184427646698</v>
+        <v>1.044141535287826</v>
       </c>
       <c r="J10">
-        <v>1.028804916886327</v>
+        <v>1.028880156144239</v>
       </c>
       <c r="K10">
-        <v>1.034711385751522</v>
+        <v>1.034403379299783</v>
       </c>
       <c r="L10">
-        <v>1.027674506612483</v>
+        <v>1.027780437057095</v>
       </c>
       <c r="M10">
-        <v>1.028438146267926</v>
+        <v>1.02853813791994</v>
       </c>
       <c r="N10">
-        <v>1.013069818464906</v>
+        <v>1.014772483299197</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035650876404121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035445505434615</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021443470235682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9974740339564048</v>
+        <v>0.9978258089251768</v>
       </c>
       <c r="D11">
-        <v>1.018656950808494</v>
+        <v>1.018613676136169</v>
       </c>
       <c r="E11">
-        <v>1.010853106305917</v>
+        <v>1.01121109193022</v>
       </c>
       <c r="F11">
-        <v>1.011164762613351</v>
+        <v>1.01152753692785</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043325751464468</v>
+        <v>1.043435147940544</v>
       </c>
       <c r="J11">
-        <v>1.026952274938671</v>
+        <v>1.027289317344181</v>
       </c>
       <c r="K11">
-        <v>1.033235397331956</v>
+        <v>1.033192900419086</v>
       </c>
       <c r="L11">
-        <v>1.025573210779235</v>
+        <v>1.025924635820297</v>
       </c>
       <c r="M11">
-        <v>1.025879155211652</v>
+        <v>1.02623528655909</v>
       </c>
       <c r="N11">
-        <v>1.012434871814569</v>
+        <v>1.014574255039381</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034640131487665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034625708226177</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021183719426535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9962844601537886</v>
+        <v>0.9967475209046998</v>
       </c>
       <c r="D12">
-        <v>1.017877087797728</v>
+        <v>1.017941898122369</v>
       </c>
       <c r="E12">
-        <v>1.009834035679509</v>
+        <v>1.010294175610849</v>
       </c>
       <c r="F12">
-        <v>1.009970774626907</v>
+        <v>1.010440088825304</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042995528815769</v>
+        <v>1.043166610639011</v>
       </c>
       <c r="J12">
-        <v>1.026246904986116</v>
+        <v>1.026690172210847</v>
       </c>
       <c r="K12">
-        <v>1.032669622541671</v>
+        <v>1.032733247436585</v>
       </c>
       <c r="L12">
-        <v>1.0247752254997</v>
+        <v>1.025226777633925</v>
       </c>
       <c r="M12">
-        <v>1.024909411360569</v>
+        <v>1.02536996973622</v>
       </c>
       <c r="N12">
-        <v>1.012191735585577</v>
+        <v>1.014515061991284</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034240109930157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034300725129363</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021084146726531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9965382466238587</v>
+        <v>0.9969772679195588</v>
       </c>
       <c r="D13">
-        <v>1.018042422674534</v>
+        <v>1.018083934815048</v>
       </c>
       <c r="E13">
-        <v>1.010051198753064</v>
+        <v>1.010489268651471</v>
       </c>
       <c r="F13">
-        <v>1.01022547634647</v>
+        <v>1.010671771981797</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043065291235115</v>
+        <v>1.043223070941497</v>
       </c>
       <c r="J13">
-        <v>1.026396680221401</v>
+        <v>1.026817017197005</v>
       </c>
       <c r="K13">
-        <v>1.032789031831507</v>
+        <v>1.032829787519629</v>
       </c>
       <c r="L13">
-        <v>1.024944938274571</v>
+        <v>1.025374864014549</v>
       </c>
       <c r="M13">
-        <v>1.025115974769242</v>
+        <v>1.025553977142301</v>
       </c>
       <c r="N13">
-        <v>1.012243084832115</v>
+        <v>1.014526396028966</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03432204129748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034366243791105</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021104808926506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9973751283983447</v>
+        <v>0.9977360178150312</v>
       </c>
       <c r="D14">
-        <v>1.018591663261972</v>
+        <v>1.018557264564114</v>
       </c>
       <c r="E14">
-        <v>1.010768270095011</v>
+        <v>1.011134620502466</v>
       </c>
       <c r="F14">
-        <v>1.011065477314956</v>
+        <v>1.011436975143301</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04329800334086</v>
+        <v>1.043412462020591</v>
       </c>
       <c r="J14">
-        <v>1.026893325043328</v>
+        <v>1.027239074485684</v>
       </c>
       <c r="K14">
-        <v>1.033187803927968</v>
+        <v>1.033154024368289</v>
       </c>
       <c r="L14">
-        <v>1.025506636579432</v>
+        <v>1.02586626292496</v>
       </c>
       <c r="M14">
-        <v>1.025798388318186</v>
+        <v>1.026163072872061</v>
       </c>
       <c r="N14">
-        <v>1.012414434319469</v>
+        <v>1.01456875347402</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034605412664042</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034597049716507</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02117519029144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9978929409276067</v>
+        <v>0.9982064123652895</v>
       </c>
       <c r="D15">
-        <v>1.018933621490732</v>
+        <v>1.018852983513547</v>
       </c>
       <c r="E15">
-        <v>1.011212497225501</v>
+        <v>1.011535340888287</v>
       </c>
       <c r="F15">
-        <v>1.011585335605987</v>
+        <v>1.011911459874943</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043443300654121</v>
+        <v>1.043531410864446</v>
       </c>
       <c r="J15">
-        <v>1.027202018271767</v>
+        <v>1.027502455703905</v>
       </c>
       <c r="K15">
-        <v>1.033437102379869</v>
+        <v>1.033357904715441</v>
       </c>
       <c r="L15">
-        <v>1.025855244836671</v>
+        <v>1.026172209912949</v>
       </c>
       <c r="M15">
-        <v>1.026221294724772</v>
+        <v>1.026541486389958</v>
       </c>
       <c r="N15">
-        <v>1.012521483155414</v>
+        <v>1.014598334426455</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034787550750344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034747642868657</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021219955394159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00085584907549</v>
+        <v>1.000914153232732</v>
       </c>
       <c r="D16">
-        <v>1.020880104722638</v>
+        <v>1.020546954869996</v>
       </c>
       <c r="E16">
-        <v>1.01375469730773</v>
+        <v>1.013844072545938</v>
       </c>
       <c r="F16">
-        <v>1.014563552397216</v>
+        <v>1.014646110008133</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044262719177957</v>
+        <v>1.044208455613595</v>
       </c>
       <c r="J16">
-        <v>1.028958875146303</v>
+        <v>1.029014879228696</v>
       </c>
       <c r="K16">
-        <v>1.034846724039968</v>
+        <v>1.034519261309364</v>
       </c>
       <c r="L16">
-        <v>1.027844007616946</v>
+        <v>1.027931830096978</v>
       </c>
       <c r="M16">
-        <v>1.028638822981238</v>
+        <v>1.028719949225193</v>
       </c>
       <c r="N16">
-        <v>1.013127267288048</v>
+        <v>1.014799716484334</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035787368629261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035572222045737</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021472542863733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002692154054028</v>
+        <v>1.002607760351959</v>
       </c>
       <c r="D17">
-        <v>1.022088362316564</v>
+        <v>1.021610262470604</v>
       </c>
       <c r="E17">
-        <v>1.015332559767489</v>
+        <v>1.015291829857377</v>
       </c>
       <c r="F17">
-        <v>1.016411995760564</v>
+        <v>1.016358770217963</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044768229216249</v>
+        <v>1.044633491434892</v>
       </c>
       <c r="J17">
-        <v>1.030047268418947</v>
+        <v>1.029966093713597</v>
       </c>
       <c r="K17">
-        <v>1.035719878109493</v>
+        <v>1.035249705885282</v>
       </c>
       <c r="L17">
-        <v>1.029076990387171</v>
+        <v>1.029036947104757</v>
       </c>
       <c r="M17">
-        <v>1.030138255032091</v>
+        <v>1.030085924327739</v>
       </c>
       <c r="N17">
-        <v>1.013502534265959</v>
+        <v>1.014963310313555</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036407304259227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03609150042749</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021631938151722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003745223512754</v>
+        <v>1.003585166962782</v>
       </c>
       <c r="D18">
-        <v>1.022776694109004</v>
+        <v>1.022219976230657</v>
       </c>
       <c r="E18">
-        <v>1.016237305596804</v>
+        <v>1.016127798315801</v>
       </c>
       <c r="F18">
-        <v>1.017473241638964</v>
+        <v>1.017348206731636</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045053349263338</v>
+        <v>1.044875574227613</v>
       </c>
       <c r="J18">
-        <v>1.030667483679685</v>
+        <v>1.030513411883893</v>
       </c>
       <c r="K18">
-        <v>1.036213522228636</v>
+        <v>1.0356658782956</v>
       </c>
       <c r="L18">
-        <v>1.029781526887814</v>
+        <v>1.029673833138726</v>
       </c>
       <c r="M18">
-        <v>1.030997029625579</v>
+        <v>1.03087405897261</v>
       </c>
       <c r="N18">
-        <v>1.013714967306874</v>
+        <v>1.015069992492295</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03674469236057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036372974875435</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021721710279919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004110880423769</v>
+        <v>1.003925420714501</v>
       </c>
       <c r="D19">
-        <v>1.023019884070369</v>
+        <v>1.022436564695431</v>
       </c>
       <c r="E19">
-        <v>1.016552311919222</v>
+        <v>1.016419711089197</v>
       </c>
       <c r="F19">
-        <v>1.017841678962674</v>
+        <v>1.017692535695196</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045155267935246</v>
+        <v>1.044962945280742</v>
       </c>
       <c r="J19">
-        <v>1.030885753474524</v>
+        <v>1.030707181051691</v>
       </c>
       <c r="K19">
-        <v>1.036390273938426</v>
+        <v>1.035816405913385</v>
       </c>
       <c r="L19">
-        <v>1.030028274152584</v>
+        <v>1.029897855890386</v>
       </c>
       <c r="M19">
-        <v>1.031296456744982</v>
+        <v>1.031149760388432</v>
       </c>
       <c r="N19">
-        <v>1.013790824938907</v>
+        <v>1.015111630915868</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036876050837294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03648641338419</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021755192462269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002495152647063</v>
+        <v>1.002425467363907</v>
       </c>
       <c r="D20">
-        <v>1.021958263542099</v>
+        <v>1.021495262879712</v>
       </c>
       <c r="E20">
-        <v>1.015163127563732</v>
+        <v>1.015135793490537</v>
       </c>
       <c r="F20">
-        <v>1.016213614795498</v>
+        <v>1.016174371131029</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044713780454885</v>
+        <v>1.044587380496027</v>
       </c>
       <c r="J20">
-        <v>1.029930228030839</v>
+        <v>1.029863210430214</v>
       </c>
       <c r="K20">
-        <v>1.035625688031738</v>
+        <v>1.035170388830148</v>
       </c>
       <c r="L20">
-        <v>1.028944490694712</v>
+        <v>1.028917618925074</v>
       </c>
       <c r="M20">
-        <v>1.029977235252775</v>
+        <v>1.029938653560842</v>
       </c>
       <c r="N20">
-        <v>1.013462071221285</v>
+        <v>1.014943989451514</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036339373812281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036033956741267</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021614513274605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9971401145484216</v>
+        <v>0.9975477445891234</v>
       </c>
       <c r="D21">
-        <v>1.01844295175313</v>
+        <v>1.01844857129652</v>
       </c>
       <c r="E21">
-        <v>1.010567907178172</v>
+        <v>1.010977855142287</v>
       </c>
       <c r="F21">
-        <v>1.010829302321914</v>
+        <v>1.011246040660999</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043236869250876</v>
+        <v>1.043376099853736</v>
       </c>
       <c r="J21">
-        <v>1.026757894947126</v>
+        <v>1.027148352597284</v>
       </c>
       <c r="K21">
-        <v>1.033083142886431</v>
+        <v>1.03308866092062</v>
       </c>
       <c r="L21">
-        <v>1.025351795632557</v>
+        <v>1.025754191231604</v>
       </c>
       <c r="M21">
-        <v>1.025608374239143</v>
+        <v>1.02601744035479</v>
       </c>
       <c r="N21">
-        <v>1.012369259637145</v>
+        <v>1.014628678989417</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034544936297667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034565668975315</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021164482258898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.993684404018693</v>
+        <v>0.994402144849</v>
       </c>
       <c r="D22">
-        <v>1.016174007250882</v>
+        <v>1.016483951063026</v>
       </c>
       <c r="E22">
-        <v>1.007609042596612</v>
+        <v>1.008303548179803</v>
       </c>
       <c r="F22">
-        <v>1.007363945101861</v>
+        <v>1.008077627904805</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04227090933721</v>
+        <v>1.042582896654274</v>
       </c>
       <c r="J22">
-        <v>1.024704319632696</v>
+        <v>1.025390014865115</v>
       </c>
       <c r="K22">
-        <v>1.031431721921681</v>
+        <v>1.031735780941494</v>
       </c>
       <c r="L22">
-        <v>1.023031255042981</v>
+        <v>1.023712285559873</v>
       </c>
       <c r="M22">
-        <v>1.0227909188401</v>
+        <v>1.023490746006789</v>
       </c>
       <c r="N22">
-        <v>1.011659823679733</v>
+        <v>1.014411565224835</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033363801183918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033594323094562</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020868345333088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9955104023372024</v>
+        <v>0.9960478091858587</v>
       </c>
       <c r="D23">
-        <v>1.017365628706576</v>
+        <v>1.017502216644965</v>
       </c>
       <c r="E23">
-        <v>1.009170491301193</v>
+        <v>1.009699009378166</v>
       </c>
       <c r="F23">
-        <v>1.009194466367669</v>
+        <v>1.009735075155705</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042777028314801</v>
+        <v>1.042989323811695</v>
       </c>
       <c r="J23">
-        <v>1.025784716238031</v>
+        <v>1.026298851028337</v>
       </c>
       <c r="K23">
-        <v>1.032295711375765</v>
+        <v>1.032429772979221</v>
       </c>
       <c r="L23">
-        <v>1.024253786990041</v>
+        <v>1.024772326069653</v>
       </c>
       <c r="M23">
-        <v>1.024277309085373</v>
+        <v>1.024807711383506</v>
       </c>
       <c r="N23">
-        <v>1.012031203851085</v>
+        <v>1.014478454201235</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03396503588237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034074418534551</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021017433031936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002562660846118</v>
+        <v>1.002488354572689</v>
       </c>
       <c r="D24">
-        <v>1.021991901918465</v>
+        <v>1.021523892590195</v>
       </c>
       <c r="E24">
-        <v>1.015219247515258</v>
+        <v>1.015187793366312</v>
       </c>
       <c r="F24">
-        <v>1.016282167518671</v>
+        <v>1.016238603316318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044724205766267</v>
+        <v>1.044595253603671</v>
       </c>
       <c r="J24">
-        <v>1.029962418863745</v>
+        <v>1.029890952659241</v>
       </c>
       <c r="K24">
-        <v>1.035643516721756</v>
+        <v>1.035183281582897</v>
       </c>
       <c r="L24">
-        <v>1.028984265463309</v>
+        <v>1.028953342545194</v>
       </c>
       <c r="M24">
-        <v>1.030029258685301</v>
+        <v>1.029986428268729</v>
       </c>
       <c r="N24">
-        <v>1.013470257249369</v>
+        <v>1.014945382864233</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036324591614465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036013012093686</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021614769483597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010440989214254</v>
+        <v>1.009908079368625</v>
       </c>
       <c r="D25">
-        <v>1.027184285162938</v>
+        <v>1.026207643144673</v>
       </c>
       <c r="E25">
-        <v>1.022007589839263</v>
+        <v>1.021561902415468</v>
       </c>
       <c r="F25">
-        <v>1.02423653165402</v>
+        <v>1.023760072939256</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046865706931123</v>
+        <v>1.046467447648501</v>
       </c>
       <c r="J25">
-        <v>1.034622010067481</v>
+        <v>1.034106536885212</v>
       </c>
       <c r="K25">
-        <v>1.039374763549028</v>
+        <v>1.038412299200872</v>
       </c>
       <c r="L25">
-        <v>1.034273609095125</v>
+        <v>1.033834470808578</v>
       </c>
       <c r="M25">
-        <v>1.036469906330542</v>
+        <v>1.036000410564514</v>
       </c>
       <c r="N25">
-        <v>1.015074771372805</v>
+        <v>1.016046882994159</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038959906178674</v>
+        <v>1.038292908959513</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022322309798192</v>
       </c>
     </row>
   </sheetData>
